--- a/election_votar_data/LOHAGARA/CHUNATI/152618/152618_com_1536_male_without_photo_87_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152618/152618_com_1536_male_without_photo_87_2025-11-24.xlsx
@@ -6909,7 +6909,7 @@
       </c>
       <c r="F154" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ: ০১/০৯/১৯৮২</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G154" s="3" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ: ০৬/০৯/১৯৫২</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G155" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152618/152618_com_1536_male_without_photo_87_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152618/152618_com_1536_male_without_photo_87_2025-11-24.xlsx
@@ -6909,7 +6909,7 @@
       </c>
       <c r="F154" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ: ০১/০৯/১৯৮২</t>
         </is>
       </c>
       <c r="G154" s="3" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ: ০৬/০৯/১৯৫২</t>
         </is>
       </c>
       <c r="G155" s="3" t="inlineStr">
